--- a/biology/Médecine/Centre_médical_Baruch_Padeh/Centre_médical_Baruch_Padeh.xlsx
+++ b/biology/Médecine/Centre_médical_Baruch_Padeh/Centre_médical_Baruch_Padeh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_Baruch_Padeh</t>
+          <t>Centre_médical_Baruch_Padeh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre médical Baruch Padeh, (en hébreu : בית חולים ברוך פדה ; transcription : Beit Holim Baruch Padeh) anciennement connu comme le centre médical Poriya, est un centre médical situé dans la région de Galilée, en Israël. Le centre a été créé en 1955, et il a remplacé l'hôpital et la maternité Schweitzer de l'Église écossaise à Tibériade.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_Baruch_Padeh</t>
+          <t>Centre_médical_Baruch_Padeh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,161 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoire
-En mars 2005, l'hôpital a été renommé centre médical Baruch Padeh. Le septième directeur général du ministère de la santé d'Israël, qui était également l'un des directeurs généraux de l'hôpital. Au cours de la dernière décennie, l'hôpital a été transformé d'un petit hôpital de gouvernement local à un centre médical agréé de 318 lits situé en Galilée orientale, dans le nord d'Israël. 
-Zone d'action
-Le centre sert une superficie d'environ 120 000 habitants de Tibériade, le Plateau du Golan, la Vallée du Jourdain, la Galilée, moshavim, kibboutzim, et villages de la région. 
-Hospitalisations
-Les hospitalisations annuelles atteignent environ 24 000, avec 67 000 références au service d'urgence et 91 000 références aux cliniques externes et les services de consultations externes. En outre, le département maternité a un taux croissant avec plus de 3 300 naissances par an.
-Population desservie
-La population desservie par le centre médical comprend également les soldats de l'Armée de défense d'Israël stationnés dans la région, les forces de l'ONU stationnées dans le Plateau du Golan et le sud du Liban, dont le siège est situé à Tibériade, et comprend 80 000 touristes (nationaux et étrangers), qui visitent la mer de Galilée, et plusieurs lieux sacrés dans les centres touristiques, en particulier pendant l'été.
-Personnel du centre
-Le centre médical emploie plus de 900 personnes, y compris des médecins, des employés auxiliaires, des employés paramédicaux, du personnel administratif et du personnel de nettoyage. 
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2005, l'hôpital a été renommé centre médical Baruch Padeh. Le septième directeur général du ministère de la santé d'Israël, qui était également l'un des directeurs généraux de l'hôpital. Au cours de la dernière décennie, l'hôpital a été transformé d'un petit hôpital de gouvernement local à un centre médical agréé de 318 lits situé en Galilée orientale, dans le nord d'Israël. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_médical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Centre médical</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zone d'action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre sert une superficie d'environ 120 000 habitants de Tibériade, le Plateau du Golan, la Vallée du Jourdain, la Galilée, moshavim, kibboutzim, et villages de la région. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_médical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Centre médical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hospitalisations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hospitalisations annuelles atteignent environ 24 000, avec 67 000 références au service d'urgence et 91 000 références aux cliniques externes et les services de consultations externes. En outre, le département maternité a un taux croissant avec plus de 3 300 naissances par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_médical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Centre médical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Population desservie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population desservie par le centre médical comprend également les soldats de l'Armée de défense d'Israël stationnés dans la région, les forces de l'ONU stationnées dans le Plateau du Golan et le sud du Liban, dont le siège est situé à Tibériade, et comprend 80 000 touristes (nationaux et étrangers), qui visitent la mer de Galilée, et plusieurs lieux sacrés dans les centres touristiques, en particulier pendant l'été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_médical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_Baruch_Padeh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Centre médical</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnel du centre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre médical emploie plus de 900 personnes, y compris des médecins, des employés auxiliaires, des employés paramédicaux, du personnel administratif et du personnel de nettoyage. 
 </t>
         </is>
       </c>
